--- a/dados/carteiras/carteiras.xlsx
+++ b/dados/carteiras/carteiras.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mhf\dev\investing-go\dados\carteiras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7D5CC10-2E63-43B3-B40A-19FC35C4FB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1FB63C-A973-41DE-AD9F-E993645945FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F6DC162F-3D6A-424D-9A11-FEB4DF5BE204}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F6DC162F-3D6A-424D-9A11-FEB4DF5BE204}"/>
   </bookViews>
   <sheets>
-    <sheet name="1_ATIVOS" sheetId="1" r:id="rId1"/>
+    <sheet name="1_MEUS_ATIVOS" sheetId="1" r:id="rId1"/>
     <sheet name="2_CARTEIRAS" sheetId="3" r:id="rId2"/>
-    <sheet name="3_OBJETIVOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,77 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>nm_carteira</t>
   </si>
   <si>
-    <t>Carteira recomenda Clear 06/2021</t>
-  </si>
-  <si>
-    <t>ds_objetivo</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>Dividendos</t>
-  </si>
-  <si>
-    <t>Minha carteira de aposentadoria</t>
-  </si>
-  <si>
-    <t>Aposentadoria</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>PRE-2026</t>
-  </si>
-  <si>
-    <t>cd_objetivo</t>
-  </si>
-  <si>
-    <t>Comprar uma casa</t>
-  </si>
-  <si>
-    <t>cd_papel</t>
-  </si>
-  <si>
     <t>qt_compra</t>
   </si>
   <si>
-    <t>vl_preco_entrada</t>
-  </si>
-  <si>
-    <t>dr_referencia</t>
-  </si>
-  <si>
     <t>cd_carteira</t>
   </si>
   <si>
-    <t>percentual_stop</t>
-  </si>
-  <si>
-    <t>percentual_alvo</t>
+    <t>cd_ativo</t>
+  </si>
+  <si>
+    <t>dt_referencia</t>
+  </si>
+  <si>
+    <t>vl_preco</t>
+  </si>
+  <si>
+    <t>pr_stop_loss</t>
+  </si>
+  <si>
+    <t>pr_stop_gain</t>
+  </si>
+  <si>
+    <t>vl_stop_loss</t>
+  </si>
+  <si>
+    <t>vl_stop_gain</t>
+  </si>
+  <si>
+    <t>nm_objetivo</t>
+  </si>
+  <si>
+    <t>dt_alvo</t>
+  </si>
+  <si>
+    <t>vl_alvo_acumulado</t>
+  </si>
+  <si>
+    <t>pr_mes_acumulado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,15 +117,27 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,55 +145,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,191 +540,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2283F40-4CBB-4DDB-AD55-AEA66FB7BD0E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="6"/>
-    <col min="2" max="2" width="16.7109375" style="11"/>
-    <col min="3" max="3" width="33.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="7"/>
-    <col min="5" max="5" width="20.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="16.7109375" style="3"/>
+    <col min="1" max="2" width="16.7109375" style="12"/>
+    <col min="3" max="3" width="16.7109375" style="3"/>
+    <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" style="10" customWidth="1"/>
+    <col min="8" max="9" width="16.85546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="16.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E5" s="8">
-        <v>50</v>
-      </c>
-      <c r="F5" s="15">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E6" s="8">
-        <v>200</v>
-      </c>
-      <c r="F6" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E7" s="8">
-        <v>150</v>
-      </c>
-      <c r="F7" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="15">
-        <v>30000</v>
-      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="E8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -714,136 +605,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C1933-2445-45F8-B69A-29A3E144F472}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="11"/>
-    <col min="2" max="2" width="52.5703125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="19.28515625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.7109375" style="12"/>
+    <col min="2" max="2" width="53" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="21" customWidth="1"/>
+    <col min="5" max="5" width="21" style="22" customWidth="1"/>
+    <col min="6" max="6" width="21" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F77CAF-100C-4992-9175-7872CFF13FCB}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="11"/>
-    <col min="2" max="2" width="52.5703125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>